--- a/program_directory/interpreterAccounting/华侨城A：2018年年度报告.xlsx
+++ b/program_directory/interpreterAccounting/华侨城A：2018年年度报告.xlsx
@@ -5,19 +5,20 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12600" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="27720" windowHeight="13665" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="无形资产情况" sheetId="8" r:id="rId1"/>
     <sheet name="现金流量表补充资料" sheetId="9" r:id="rId2"/>
     <sheet name="合并利润表" sheetId="10" r:id="rId3"/>
+    <sheet name="合并资产负债表" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="521">
   <si>
     <t>项目</t>
   </si>
@@ -851,6 +852,735 @@
   </si>
   <si>
     <t>（二）稀释每股收益（元/股）</t>
+  </si>
+  <si>
+    <t>项      目</t>
+  </si>
+  <si>
+    <t>2018年12月31日</t>
+  </si>
+  <si>
+    <t>2018年1月1日</t>
+  </si>
+  <si>
+    <t>2017年12月31日</t>
+  </si>
+  <si>
+    <t>流动资产：</t>
+  </si>
+  <si>
+    <t>货币资金</t>
+  </si>
+  <si>
+    <t>六、1</t>
+  </si>
+  <si>
+    <t>27,228,304,224.55</t>
+  </si>
+  <si>
+    <t>29,209,738,888.04</t>
+  </si>
+  <si>
+    <t>交易性金融资产</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>以公允价值计量且其变动计入当期损益的金融资产</t>
+  </si>
+  <si>
+    <t>衍生金融资产</t>
+  </si>
+  <si>
+    <t>应收票据及应收账款</t>
+  </si>
+  <si>
+    <t>六、2</t>
+  </si>
+  <si>
+    <t>398,731,149.48</t>
+  </si>
+  <si>
+    <t>657,660,432.32</t>
+  </si>
+  <si>
+    <t>其中：应收票据</t>
+  </si>
+  <si>
+    <t>52,244,148.28</t>
+  </si>
+  <si>
+    <t>173,389,706.43</t>
+  </si>
+  <si>
+    <t>应收账款</t>
+  </si>
+  <si>
+    <t>346,487,001.20</t>
+  </si>
+  <si>
+    <t>484,270,725.89</t>
+  </si>
+  <si>
+    <t>预付款项</t>
+  </si>
+  <si>
+    <t>六、3</t>
+  </si>
+  <si>
+    <t>10,670,070,850.97</t>
+  </si>
+  <si>
+    <t>17,013,232,701.16</t>
+  </si>
+  <si>
+    <t>其他应收款</t>
+  </si>
+  <si>
+    <t>六、4</t>
+  </si>
+  <si>
+    <t>31,298,167,513.68</t>
+  </si>
+  <si>
+    <t>11,649,559,859.97</t>
+  </si>
+  <si>
+    <t>其中：应收利息</t>
+  </si>
+  <si>
+    <t>494,361,336.84</t>
+  </si>
+  <si>
+    <t>328,304,276.29</t>
+  </si>
+  <si>
+    <t>应收股利</t>
+  </si>
+  <si>
+    <t>25,000,000.00</t>
+  </si>
+  <si>
+    <t>存货</t>
+  </si>
+  <si>
+    <t>六、5</t>
+  </si>
+  <si>
+    <t>160,224,892,511.15</t>
+  </si>
+  <si>
+    <t>105,751,779,271.01</t>
+  </si>
+  <si>
+    <t>105,737,734,040.27</t>
+  </si>
+  <si>
+    <t>合同资产</t>
+  </si>
+  <si>
+    <t>持有待售资产</t>
+  </si>
+  <si>
+    <t>20,098,418.99</t>
+  </si>
+  <si>
+    <t>一年内到期的非流动资产</t>
+  </si>
+  <si>
+    <t>六、6</t>
+  </si>
+  <si>
+    <t>65,342,221.44</t>
+  </si>
+  <si>
+    <t>其他流动资产</t>
+  </si>
+  <si>
+    <t>六、7</t>
+  </si>
+  <si>
+    <t>4,437,473,434.92</t>
+  </si>
+  <si>
+    <t>2,919,369,334.02</t>
+  </si>
+  <si>
+    <t>流动资产合计</t>
+  </si>
+  <si>
+    <t>234,322,981,906.19</t>
+  </si>
+  <si>
+    <t>167,221,438,905.51</t>
+  </si>
+  <si>
+    <t>167,207,393,674.77</t>
+  </si>
+  <si>
+    <t>非流动资产：</t>
+  </si>
+  <si>
+    <t>债权投资</t>
+  </si>
+  <si>
+    <t>可供出售金融资产</t>
+  </si>
+  <si>
+    <t>六、8</t>
+  </si>
+  <si>
+    <t>1,185,293,672.43</t>
+  </si>
+  <si>
+    <t>1,315,759,774.05</t>
+  </si>
+  <si>
+    <t>1,915,471,018.00</t>
+  </si>
+  <si>
+    <t>其他债权投资</t>
+  </si>
+  <si>
+    <t>持有至到期投资</t>
+  </si>
+  <si>
+    <t>长期应收款</t>
+  </si>
+  <si>
+    <t>六、9</t>
+  </si>
+  <si>
+    <t>1,115,065,990.51</t>
+  </si>
+  <si>
+    <t>884,195,740.00</t>
+  </si>
+  <si>
+    <t>长期股权投资</t>
+  </si>
+  <si>
+    <t>六、10</t>
+  </si>
+  <si>
+    <t>11,062,359,890.88</t>
+  </si>
+  <si>
+    <t>6,643,977,863.83</t>
+  </si>
+  <si>
+    <t>6,638,647,725.30</t>
+  </si>
+  <si>
+    <t>其他权益工具投资</t>
+  </si>
+  <si>
+    <t>六、11</t>
+  </si>
+  <si>
+    <t>1,161,835,504.71</t>
+  </si>
+  <si>
+    <t>其他非流动金融资产</t>
+  </si>
+  <si>
+    <t>六、12</t>
+  </si>
+  <si>
+    <t>275,689,223.52</t>
+  </si>
+  <si>
+    <t>599,711,243.95</t>
+  </si>
+  <si>
+    <t>投资性房地产</t>
+  </si>
+  <si>
+    <t>六、13</t>
+  </si>
+  <si>
+    <t>6,704,441,380.79</t>
+  </si>
+  <si>
+    <t>5,458,650,572.73</t>
+  </si>
+  <si>
+    <t>固定资产</t>
+  </si>
+  <si>
+    <t>六、14</t>
+  </si>
+  <si>
+    <t>14,553,211,476.91</t>
+  </si>
+  <si>
+    <t>14,057,446,726.55</t>
+  </si>
+  <si>
+    <t>在建工程</t>
+  </si>
+  <si>
+    <t>六、15</t>
+  </si>
+  <si>
+    <t>3,139,928,146.96</t>
+  </si>
+  <si>
+    <t>2,132,982,375.71</t>
+  </si>
+  <si>
+    <t>无形资产</t>
+  </si>
+  <si>
+    <t>六、16</t>
+  </si>
+  <si>
+    <t>商誉</t>
+  </si>
+  <si>
+    <t>六、17</t>
+  </si>
+  <si>
+    <t>87,116,029.52</t>
+  </si>
+  <si>
+    <t>114,696,871.68</t>
+  </si>
+  <si>
+    <t>长期待摊费用</t>
+  </si>
+  <si>
+    <t>六、18</t>
+  </si>
+  <si>
+    <t>679,819,296.25</t>
+  </si>
+  <si>
+    <t>672,477,756.76</t>
+  </si>
+  <si>
+    <t>递延所得税资产</t>
+  </si>
+  <si>
+    <t>六、19</t>
+  </si>
+  <si>
+    <t>8,956,509,091.88</t>
+  </si>
+  <si>
+    <t>6,893,729,076.84</t>
+  </si>
+  <si>
+    <t>其他非流动资产</t>
+  </si>
+  <si>
+    <t>六、20</t>
+  </si>
+  <si>
+    <t>3,340,037,448.47</t>
+  </si>
+  <si>
+    <t>5,834,512,690.17</t>
+  </si>
+  <si>
+    <t>非流动资产合计</t>
+  </si>
+  <si>
+    <t>59,844,154,903.61</t>
+  </si>
+  <si>
+    <t>50,807,550,486.88</t>
+  </si>
+  <si>
+    <t>50,802,220,348.35</t>
+  </si>
+  <si>
+    <t>资产总计</t>
+  </si>
+  <si>
+    <t>294,167,136,809.80</t>
+  </si>
+  <si>
+    <t>218,028,989,392.39</t>
+  </si>
+  <si>
+    <t>218,009,614,023.12</t>
+  </si>
+  <si>
+    <t>流动负债：</t>
+  </si>
+  <si>
+    <t>短期借款</t>
+  </si>
+  <si>
+    <t>六、21</t>
+  </si>
+  <si>
+    <t>13,130,955,933.33</t>
+  </si>
+  <si>
+    <t>12,757,593,000.00</t>
+  </si>
+  <si>
+    <t>交易性金融负债</t>
+  </si>
+  <si>
+    <t>以公允价值计量且其变动计入当期损益的金融负债</t>
+  </si>
+  <si>
+    <t>衍生金融负债</t>
+  </si>
+  <si>
+    <t>应付票据及应付账</t>
+  </si>
+  <si>
+    <t>六、</t>
+  </si>
+  <si>
+    <t>11,412,827,636.45</t>
+  </si>
+  <si>
+    <t>款</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>14,206,291,921.80</t>
+  </si>
+  <si>
+    <t>预收款项</t>
+  </si>
+  <si>
+    <t>六、23</t>
+  </si>
+  <si>
+    <t>42,284,211,146.95</t>
+  </si>
+  <si>
+    <t>30,237,964,892.59</t>
+  </si>
+  <si>
+    <t>30,909,533,911.75</t>
+  </si>
+  <si>
+    <t>应付职工薪酬</t>
+  </si>
+  <si>
+    <t>六、24</t>
+  </si>
+  <si>
+    <t>1,231,203,356.10</t>
+  </si>
+  <si>
+    <t>996,405,912.37</t>
+  </si>
+  <si>
+    <t>应交税费</t>
+  </si>
+  <si>
+    <t>六、25</t>
+  </si>
+  <si>
+    <t>7,186,327,177.27</t>
+  </si>
+  <si>
+    <t>5,940,090,525.10</t>
+  </si>
+  <si>
+    <t>其他应付款</t>
+  </si>
+  <si>
+    <t>六、26</t>
+  </si>
+  <si>
+    <t>55,923,833,861.20</t>
+  </si>
+  <si>
+    <t>38,534,124,941.10</t>
+  </si>
+  <si>
+    <t>其中：应付利息</t>
+  </si>
+  <si>
+    <t>1,446,510,449.31</t>
+  </si>
+  <si>
+    <t>276,584,373.45</t>
+  </si>
+  <si>
+    <t>应付股利</t>
+  </si>
+  <si>
+    <t>29,909,532.92</t>
+  </si>
+  <si>
+    <t>12,010,517.01</t>
+  </si>
+  <si>
+    <t>合同负债</t>
+  </si>
+  <si>
+    <t>六、27</t>
+  </si>
+  <si>
+    <t>2,429,538,016.38</t>
+  </si>
+  <si>
+    <t>682,516,706.38</t>
+  </si>
+  <si>
+    <t>持有待售负债</t>
+  </si>
+  <si>
+    <t>一年内到期的非流动负债</t>
+  </si>
+  <si>
+    <t>六、28</t>
+  </si>
+  <si>
+    <t>8,606,759,053.81</t>
+  </si>
+  <si>
+    <t>2,789,993,250.00</t>
+  </si>
+  <si>
+    <t>其他流动负债</t>
+  </si>
+  <si>
+    <t>流动负债合计</t>
+  </si>
+  <si>
+    <t>144,999,120,466.84</t>
+  </si>
+  <si>
+    <t>103,351,516,863.99</t>
+  </si>
+  <si>
+    <t>103,340,569,176.77</t>
+  </si>
+  <si>
+    <t>非流动负债：</t>
+  </si>
+  <si>
+    <t>长期借款</t>
+  </si>
+  <si>
+    <t>六、29</t>
+  </si>
+  <si>
+    <t>59,410,511,780.30</t>
+  </si>
+  <si>
+    <t>44,706,093,598.81</t>
+  </si>
+  <si>
+    <t>应付债券</t>
+  </si>
+  <si>
+    <t>六、30</t>
+  </si>
+  <si>
+    <t>11,137,014,774.85</t>
+  </si>
+  <si>
+    <t>3,491,949,752.41</t>
+  </si>
+  <si>
+    <t>其中：优先股</t>
+  </si>
+  <si>
+    <t>永续债</t>
+  </si>
+  <si>
+    <t>长期应付款</t>
+  </si>
+  <si>
+    <t>六、31</t>
+  </si>
+  <si>
+    <t>40,220,780.12</t>
+  </si>
+  <si>
+    <t>6,999,044.42</t>
+  </si>
+  <si>
+    <t>长期应付职工薪酬</t>
+  </si>
+  <si>
+    <t>预计负债</t>
+  </si>
+  <si>
+    <t>递延收益</t>
+  </si>
+  <si>
+    <t>六、32</t>
+  </si>
+  <si>
+    <t>1,371,702,947.25</t>
+  </si>
+  <si>
+    <t>递延所得税负债</t>
+  </si>
+  <si>
+    <t>46,232,724.46</t>
+  </si>
+  <si>
+    <t>219,448,629.09</t>
+  </si>
+  <si>
+    <t>218,880,116.12</t>
+  </si>
+  <si>
+    <t>其他非流动负债</t>
+  </si>
+  <si>
+    <t>六、33</t>
+  </si>
+  <si>
+    <t>770,000,000.00</t>
+  </si>
+  <si>
+    <t>非流动负债合计</t>
+  </si>
+  <si>
+    <t>72,005,683,006.98</t>
+  </si>
+  <si>
+    <t>49,194,491,024.73</t>
+  </si>
+  <si>
+    <t>49,193,922,511.76</t>
+  </si>
+  <si>
+    <t>负债合计</t>
+  </si>
+  <si>
+    <t>217,004,803,473.82</t>
+  </si>
+  <si>
+    <t>152,546,007,888.72</t>
+  </si>
+  <si>
+    <t>152,534,491,688.53</t>
+  </si>
+  <si>
+    <t>股东权益：</t>
+  </si>
+  <si>
+    <t>股本</t>
+  </si>
+  <si>
+    <t>六、34</t>
+  </si>
+  <si>
+    <t>8,203,106,415.00</t>
+  </si>
+  <si>
+    <t>8,204,081,415.00</t>
+  </si>
+  <si>
+    <t>其他权益工具</t>
+  </si>
+  <si>
+    <t>资本公积</t>
+  </si>
+  <si>
+    <t>六、35</t>
+  </si>
+  <si>
+    <t>5,496,389,628.98</t>
+  </si>
+  <si>
+    <t>5,636,898,807.44</t>
+  </si>
+  <si>
+    <t>减：库存股</t>
+  </si>
+  <si>
+    <t>其他综合收益</t>
+  </si>
+  <si>
+    <t>六、36</t>
+  </si>
+  <si>
+    <t>-1,179,112,785.24</t>
+  </si>
+  <si>
+    <t>-259,975,714.33</t>
+  </si>
+  <si>
+    <t>专项储备</t>
+  </si>
+  <si>
+    <t>盈余公积</t>
+  </si>
+  <si>
+    <t>六、37</t>
+  </si>
+  <si>
+    <t>3,937,949,823.65</t>
+  </si>
+  <si>
+    <t>3,605,908,167.08</t>
+  </si>
+  <si>
+    <t>一般风险准备</t>
+  </si>
+  <si>
+    <t>未分配利润</t>
+  </si>
+  <si>
+    <t>六、38</t>
+  </si>
+  <si>
+    <t>42,664,979,432.87</t>
+  </si>
+  <si>
+    <t>34,867,195,534.33</t>
+  </si>
+  <si>
+    <t>34,861,099,114.45</t>
+  </si>
+  <si>
+    <t>归属于母公司股东权益合计</t>
+  </si>
+  <si>
+    <t>59,123,312,515.26</t>
+  </si>
+  <si>
+    <t>52,054,108,209.52</t>
+  </si>
+  <si>
+    <t>52,048,011,789.64</t>
+  </si>
+  <si>
+    <t>少数股东权益</t>
+  </si>
+  <si>
+    <t>18,039,020,820.72</t>
+  </si>
+  <si>
+    <t>13,428,873,294.15</t>
+  </si>
+  <si>
+    <t>13,427,110,544.95</t>
+  </si>
+  <si>
+    <t>股东权益合计</t>
+  </si>
+  <si>
+    <t>77,162,333,335.98</t>
+  </si>
+  <si>
+    <t>65,482,981,503.67</t>
+  </si>
+  <si>
+    <t>65,475,122,334.59</t>
+  </si>
+  <si>
+    <t>负债和股东权益总计</t>
   </si>
 </sst>
 </file>
@@ -859,11 +1589,18 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -900,6 +1637,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -910,23 +1662,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -950,14 +1693,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -980,37 +1747,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1038,7 +1775,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,7 +1799,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,25 +1895,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1098,19 +1913,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1122,85 +1931,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,7 +1949,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,11 +1972,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1268,32 +2035,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1309,141 +2050,137 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1452,29 +2189,30 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1840,361 +2578,361 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2206,32 +2944,32 @@
       <c r="E22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2243,32 +2981,32 @@
       <c r="E24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2280,221 +3018,221 @@
       <c r="E26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="2"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2507,7 +3245,7 @@
   <sheetPr/>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -3441,4 +4179,1225 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="40.6666666666667" style="1" customWidth="true"/>
+    <col min="2" max="2" width="8.88888888888889" style="1"/>
+    <col min="3" max="3" width="17.7777777777778" style="1" customWidth="true"/>
+    <col min="4" max="4" width="18.2222222222222" style="1" customWidth="true"/>
+    <col min="5" max="5" width="17.7777777777778" style="1" customWidth="true"/>
+    <col min="6" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>